--- a/other_file/学习/selenium爬坑记.xlsx
+++ b/other_file/学习/selenium爬坑记.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="138">
   <si>
     <t>报错</t>
   </si>
@@ -427,6 +427,26 @@
   </si>
   <si>
     <t>send_keys_to_element(self, element, *keys_to_send):     ---发送某些值到指定元素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#msg：判断不成立时需要反馈的字符串
+assertEqual(self, first, second, msg=None)
+--判断两个参数相等：first == second
+assertNotEqual(self, first, second, msg=None)
+--判断两个参数不相等：first ！= second
+assertIn(self, member, container, msg=None)
+--判断是字符串是否包含：member in container
+assertNotIn(self, member, container, msg=None)
+--判断是字符串是否不包含：member not in container
+assertTrue(self, expr, msg=None)
+--判断是否为真：expr is True
+assertFalse(self, expr, msg=None)
+--判断是否为假：expr is False
+assertIsNone(self, obj, msg=None)
+--判断是否为None：obj is None
+assertIsNotNone(self, obj, msg=None)
+--判断是否不为None：obj is not None
+</t>
   </si>
 </sst>
 </file>
@@ -436,8 +456,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -468,7 +488,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,14 +533,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,7 +563,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,43 +594,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,14 +624,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -626,43 +646,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,49 +802,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,84 +827,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,6 +936,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -927,6 +962,35 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,53 +1012,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,10 +1041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1033,137 +1053,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1207,6 +1227,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1558,10 +1581,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1581,7 +1604,7 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2240,6 +2263,11 @@
     <row r="131" ht="26.4" spans="1:1">
       <c r="A131" s="14" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="134" ht="259.2" spans="1:1">
+      <c r="A134" s="15" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/other_file/学习/selenium爬坑记.xlsx
+++ b/other_file/学习/selenium爬坑记.xlsx
@@ -16,18 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
   <si>
     <t>报错</t>
   </si>
   <si>
     <t>处理方法</t>
-  </si>
-  <si>
-    <t>float' object cannot be interpreted as an integer</t>
-  </si>
-  <si>
-    <t>在python2中 range() 括号里面是int，python3中/除完是float类型3中可以用//</t>
   </si>
   <si>
     <t>【xpath】语法</t>
@@ -454,9 +448,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -488,6 +482,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -496,51 +504,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,9 +525,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,8 +570,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,8 +609,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,79 +640,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,103 +820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,30 +931,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -968,10 +947,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -990,31 +967,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,10 +1035,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,19 +1047,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1074,112 +1068,112 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1231,9 +1225,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1583,8 +1574,8 @@
   <sheetPr/>
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1604,242 +1595,238 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="14" customHeight="1"/>
     <row r="26" ht="22.2" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" customHeight="1"/>
     <row r="40" ht="22.2" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:2">
@@ -1848,7 +1835,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B62" s="9"/>
     </row>
@@ -1858,7 +1845,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B64" s="9"/>
     </row>
@@ -1868,40 +1855,40 @@
     </row>
     <row r="66" customHeight="1" spans="1:2">
       <c r="A66" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B66" s="9"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -1909,18 +1896,18 @@
     </row>
     <row r="72" ht="26.4" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1930,31 +1917,31 @@
     <row r="75" spans="1:2">
       <c r="A75" s="6"/>
       <c r="B75" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1963,40 +1950,40 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" s="7"/>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2005,24 +1992,24 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B86" s="7"/>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2031,7 +2018,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B90" s="7"/>
     </row>
@@ -2041,16 +2028,16 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2059,7 +2046,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B95" s="7"/>
     </row>
@@ -2069,7 +2056,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97" s="7"/>
     </row>
@@ -2079,24 +2066,24 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" s="7"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" ht="26.4" spans="1:2">
       <c r="A101" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2106,39 +2093,39 @@
     <row r="103" spans="1:2">
       <c r="A103" s="6"/>
       <c r="B103" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" ht="26.4" spans="1:2">
       <c r="A104" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2148,31 +2135,31 @@
     <row r="109" ht="26.4" spans="1:2">
       <c r="A109" s="6"/>
       <c r="B109" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" ht="26.4" spans="1:2">
       <c r="A110" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2182,92 +2169,92 @@
     <row r="114" spans="1:2">
       <c r="A114" s="6"/>
       <c r="B114" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" ht="26.4" spans="1:1">
       <c r="A123" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" ht="26.4" spans="1:1">
       <c r="A128" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" ht="26.4" spans="1:1">
       <c r="A131" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" ht="259.2" spans="1:1">
       <c r="A134" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/other_file/学习/selenium爬坑记.xlsx
+++ b/other_file/学习/selenium爬坑记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9492"/>
+    <workbookView windowWidth="22368" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>报错</t>
   </si>
@@ -450,8 +450,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -489,14 +489,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,7 +541,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,22 +579,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,82 +612,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -640,187 +640,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,43 +931,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,11 +962,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,17 +1008,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,10 +1035,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,133 +1047,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2276,7 +2276,7 @@
     <mergeCell ref="B93:B99"/>
     <mergeCell ref="C64:C65"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2293,7 +2293,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -2310,7 +2310,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
